--- a/poModle.xlsx
+++ b/poModle.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AC0AEC-2375-4E5F-823A-F3F26A6C8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F395121-201E-4CD5-99E9-8AC74A72451D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="3096" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="3090" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="3" r:id="rId1"/>
     <sheet name="參數表(1)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -136,17 +123,7 @@
     <t>尺寸</t>
   </si>
   <si>
-    <t>訂單重量  
-(MT)</t>
-  </si>
-  <si>
     <t>FOB Foshan</t>
-  </si>
-  <si>
-    <t>總額(USD)</t>
-  </si>
-  <si>
-    <t>成品價/基價</t>
   </si>
   <si>
     <t>備註</t>
@@ -585,6 +562,83 @@
   <si>
     <t>澳大利亞</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>訂單重量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+(MT)</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成品價</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>基價</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="BiauKai"/>
+        <family val="2"/>
+      </rPr>
+      <t>(USD)</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -592,13 +646,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="195" formatCode="m/d"/>
-    <numFmt numFmtId="196" formatCode="#,##0.0"/>
-    <numFmt numFmtId="197" formatCode="[$US$]#,##0"/>
-    <numFmt numFmtId="198" formatCode="[$US$]#,##0.00"/>
-    <numFmt numFmtId="199" formatCode="0.0&quot;MT&quot;"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="[$US$]#,##0"/>
+    <numFmt numFmtId="179" formatCode="[$US$]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="0.0&quot;MT&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -738,6 +792,32 @@
       <name val="PMingLiu"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1151,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1179,7 +1259,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1206,22 +1286,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,7 +1325,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="199" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1339,23 +1419,50 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1372,36 +1479,6 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,8 +1488,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1778,53 +1861,53 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.4">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:10" ht="33">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.2">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.2">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1840,7 +1923,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="16.2">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
@@ -1852,7 +1935,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1865,24 +1948,24 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1892,17 +1975,17 @@
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="73" t="e">
+      <c r="H7" s="82" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1911,17 +1994,17 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="69" t="e">
+      <c r="H8" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="9" t="e">
         <f>H7+45</f>
         <v>#REF!</v>
@@ -1932,10 +2015,10 @@
       <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.399999999999999">
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1957,24 +2040,24 @@
       <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="56" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>19</v>
+      <c r="H11" s="63" t="s">
+        <v>117</v>
       </c>
-      <c r="H11" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>21</v>
+      <c r="I11" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" customHeight="1">
@@ -1990,29 +2073,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="75" t="e">
+      <c r="D12" s="77" t="e">
         <f>#REF! &amp; " " &amp; "(4捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="18" t="e">
-        <f>#REF!/1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="20" t="e">
-        <f t="shared" ref="H12:H15" si="0">F12*G12</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H12" s="20"/>
       <c r="I12" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="38.25" customHeight="1">
@@ -2028,29 +2105,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="75" t="e">
+      <c r="D13" s="77" t="e">
         <f>#REF! &amp; " " &amp; "(2板)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="18" t="e">
-        <f>#REF!/1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="H13" s="20"/>
       <c r="I13" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="38.25" customHeight="1">
@@ -2066,29 +2137,23 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="75" t="e">
+      <c r="D14" s="77" t="e">
         <f>#REF! &amp; " " &amp; "(2捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="18" t="e">
-        <f>#REF!/1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="40.5" customHeight="1">
@@ -2104,51 +2169,40 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="75" t="e">
+      <c r="D15" s="77" t="e">
         <f>#REF! &amp; " " &amp; "(1捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="18">
-        <v>3.5</v>
-      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="19" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A16" s="76" t="s">
-        <v>27</v>
+      <c r="A16" s="74" t="s">
+        <v>24</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="21" t="e">
-        <f>SUM(F12:F15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="23" t="e">
-        <f>SUM(H12:H15)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H16" s="23"/>
       <c r="I16" s="24"/>
       <c r="J16" s="59"/>
     </row>
-    <row r="17" spans="1:10" ht="16.2">
+    <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -2161,12 +2215,12 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="77" t="s">
-        <v>28</v>
+      <c r="A18" s="71" t="s">
+        <v>25</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2177,12 +2231,12 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>30</v>
+      <c r="A19" s="71" t="s">
+        <v>27</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2195,7 +2249,7 @@
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
       <c r="A20" s="29"/>
       <c r="C20" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2208,7 +2262,7 @@
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
       <c r="A21" s="29"/>
       <c r="C21" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -2219,12 +2273,12 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="78" t="s">
-        <v>34</v>
+      <c r="A22" s="64" t="s">
+        <v>31</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2235,12 +2289,12 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>36</v>
+      <c r="A23" s="64" t="s">
+        <v>33</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -2251,12 +2305,12 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="78" t="s">
-        <v>38</v>
+      <c r="A24" s="64" t="s">
+        <v>35</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -2267,12 +2321,12 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A25" s="78" t="s">
-        <v>40</v>
+      <c r="A25" s="64" t="s">
+        <v>37</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -2283,52 +2337,52 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A26" s="78" t="s">
-        <v>42</v>
+      <c r="A26" s="64" t="s">
+        <v>39</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="H26" s="60" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A27" s="78" t="s">
-        <v>45</v>
+      <c r="A27" s="64" t="s">
+        <v>42</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A28" s="78" t="s">
-        <v>48</v>
+      <c r="A28" s="64" t="s">
+        <v>45</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="H28" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I28" s="31">
         <v>16</v>
@@ -2336,12 +2390,12 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A29" s="78" t="s">
-        <v>51</v>
+      <c r="A29" s="64" t="s">
+        <v>48</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
@@ -2349,35 +2403,35 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A30" s="78" t="s">
-        <v>53</v>
+      <c r="A30" s="64" t="s">
+        <v>50</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="H30" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A31" s="78" t="s">
-        <v>56</v>
+      <c r="A31" s="64" t="s">
+        <v>53</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="79" t="s">
-        <v>57</v>
+      <c r="B31" s="65"/>
+      <c r="C31" s="73" t="s">
+        <v>54</v>
       </c>
-      <c r="D31" s="63"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="H31" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I31" s="31">
         <v>3.5</v>
@@ -2385,10 +2439,10 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="78" t="s">
-        <v>59</v>
+      <c r="A32" s="64" t="s">
+        <v>56</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="29" t="s">
         <v>0</v>
       </c>
@@ -2398,33 +2452,33 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A33" s="78" t="s">
-        <v>60</v>
+      <c r="A33" s="64" t="s">
+        <v>57</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="H33" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A34" s="78" t="s">
-        <v>63</v>
+      <c r="A34" s="64" t="s">
+        <v>60</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="H34" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I34" s="31">
         <v>5</v>
@@ -2432,12 +2486,12 @@
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A35" s="77" t="s">
-        <v>65</v>
+      <c r="A35" s="71" t="s">
+        <v>62</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -2446,10 +2500,10 @@
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -2459,10 +2513,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -2475,10 +2529,10 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="77"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
@@ -2492,7 +2546,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2501,35 +2555,35 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="67"/>
+      <c r="C40" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="65"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="66"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="82" t="s">
+      <c r="F41" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="66"/>
+      <c r="G41" s="69"/>
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
@@ -3494,6 +3548,35 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3506,35 +3589,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3557,28 +3611,28 @@
       <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="26" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="26" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="86" t="s">
-        <v>75</v>
+      <c r="B1" s="85" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="88" t="s">
-        <v>77</v>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89" t="s">
+        <v>74</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -3602,16 +3656,16 @@
       <c r="Y1" s="37"/>
       <c r="Z1" s="37"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="68"/>
+    <row r="2" spans="1:26" ht="16.5">
+      <c r="A2" s="84"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
-      <c r="E2" s="66"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -3634,12 +3688,12 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="37"/>
     </row>
-    <row r="3" spans="1:26" ht="16.2">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="42">
         <v>35</v>
@@ -3670,12 +3724,12 @@
       <c r="Y3" s="37"/>
       <c r="Z3" s="37"/>
     </row>
-    <row r="4" spans="1:26" ht="16.2">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="45">
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="47">
         <v>120</v>
@@ -3706,12 +3760,12 @@
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
     </row>
-    <row r="5" spans="1:26" ht="16.2">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="45">
         <v>3</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="47">
         <v>120</v>
@@ -3742,12 +3796,12 @@
       <c r="Y5" s="37"/>
       <c r="Z5" s="37"/>
     </row>
-    <row r="6" spans="1:26" ht="16.2">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="45">
         <v>4</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="47">
         <v>120</v>
@@ -3778,12 +3832,12 @@
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
     </row>
-    <row r="7" spans="1:26" ht="16.2">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="45">
         <v>5</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="47">
         <v>120</v>
@@ -3814,12 +3868,12 @@
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
     </row>
-    <row r="8" spans="1:26" ht="16.2">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="45">
         <v>6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" s="47">
         <v>120</v>
@@ -3850,12 +3904,12 @@
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
     </row>
-    <row r="9" spans="1:26" ht="16.2">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="45">
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="47">
         <v>120</v>
@@ -3886,12 +3940,12 @@
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
     </row>
-    <row r="10" spans="1:26" ht="16.2">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="45">
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="47">
         <v>120</v>
@@ -3922,12 +3976,12 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
     </row>
-    <row r="11" spans="1:26" ht="16.2">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="45">
         <v>9</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="47">
         <v>35</v>
@@ -3958,12 +4012,12 @@
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
     </row>
-    <row r="12" spans="1:26" ht="16.2">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="45">
         <v>10</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" s="47">
         <v>35</v>
@@ -3994,12 +4048,12 @@
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
     </row>
-    <row r="13" spans="1:26" ht="16.2">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="45">
         <v>11</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C13" s="47">
         <v>35</v>
@@ -4030,12 +4084,12 @@
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
     </row>
-    <row r="14" spans="1:26" ht="16.2">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="45">
         <v>12</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="47">
         <v>35</v>
@@ -4066,12 +4120,12 @@
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
     </row>
-    <row r="15" spans="1:26" ht="16.2">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="45">
         <v>13</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="47">
         <v>35</v>
@@ -4102,12 +4156,12 @@
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
     </row>
-    <row r="16" spans="1:26" ht="16.2">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="45">
         <v>14</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" s="47">
         <v>35</v>
@@ -4138,12 +4192,12 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
     </row>
-    <row r="17" spans="1:26" ht="16.2">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="45">
         <v>15</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" s="47">
         <v>70</v>
@@ -4174,12 +4228,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
     </row>
-    <row r="18" spans="1:26" ht="16.2">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="45">
         <v>16</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C18" s="47">
         <v>70</v>
@@ -4210,12 +4264,12 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
     </row>
-    <row r="19" spans="1:26" ht="16.2">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="45">
         <v>17</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="47">
         <v>70</v>
@@ -4246,12 +4300,12 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
     </row>
-    <row r="20" spans="1:26" ht="16.2">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="45">
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C20" s="47">
         <v>70</v>
@@ -4287,7 +4341,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" s="47">
         <v>70</v>
@@ -4323,7 +4377,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="47">
         <v>70</v>
@@ -4359,7 +4413,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23" s="47">
         <v>70</v>
@@ -4395,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="47">
         <v>120</v>
@@ -4431,7 +4485,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C25" s="47">
         <v>120</v>
@@ -4467,7 +4521,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" s="47">
         <v>120</v>
@@ -4503,7 +4557,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="47">
         <v>120</v>
@@ -4539,7 +4593,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C28" s="47">
         <v>120</v>
@@ -4575,7 +4629,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C29" s="47">
         <v>120</v>
@@ -4611,7 +4665,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" s="47">
         <v>280</v>
@@ -4647,7 +4701,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" s="52">
         <v>280</v>
@@ -4683,7 +4737,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="54">
         <v>50</v>
@@ -4717,7 +4771,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" s="54">
         <v>80</v>
@@ -4753,7 +4807,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="54">
         <v>110</v>
@@ -4787,7 +4841,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="54">
         <v>65</v>
@@ -4821,7 +4875,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="48"/>
@@ -4853,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" s="52">
         <v>100</v>
@@ -4889,14 +4943,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="48">
         <v>800</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -4925,7 +4979,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="48">

--- a/poModle.xlsx
+++ b/poModle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F395121-201E-4CD5-99E9-8AC74A72451D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE7DA7A-C224-4764-BDB5-BAEB52D259CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4650" yWindow="3090" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,49 +1422,10 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1478,6 +1439,45 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1861,8 +1861,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1880,7 +1880,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="65"/>
@@ -1894,7 +1894,7 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="65"/>
@@ -1948,7 +1948,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="65"/>
@@ -1962,7 +1962,7 @@
       <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="65"/>
@@ -1975,14 +1975,14 @@
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="82" t="e">
+      <c r="H7" s="69" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="65"/>
@@ -1994,21 +1994,18 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="78" t="e">
+      <c r="H8" s="64" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="65"/>
-      <c r="C9" s="9" t="e">
-        <f>H7+45</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2040,10 +2037,10 @@
       <c r="C11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="67"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="63" t="s">
         <v>115</v>
       </c>
@@ -2073,11 +2070,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="77" t="e">
+      <c r="D12" s="72" t="e">
         <f>#REF! &amp; " " &amp; "(4捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="e">
         <f>#REF!</f>
@@ -2105,11 +2102,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="77" t="e">
+      <c r="D13" s="72" t="e">
         <f>#REF! &amp; " " &amp; "(2板)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="67"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="e">
         <f>#REF!</f>
@@ -2137,11 +2134,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D14" s="77" t="e">
+      <c r="D14" s="72" t="e">
         <f>#REF! &amp; " " &amp; "(2捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="67"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="e">
         <f>#REF!</f>
@@ -2169,11 +2166,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D15" s="77" t="e">
+      <c r="D15" s="72" t="e">
         <f>#REF! &amp; " " &amp; "(1捲)"</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="e">
         <f>#REF!</f>
@@ -2189,13 +2186,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="67"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
@@ -2215,7 +2212,7 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="75" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="65"/>
@@ -2231,7 +2228,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="65"/>
@@ -2273,7 +2270,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="76" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="65"/>
@@ -2289,7 +2286,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="65"/>
@@ -2305,7 +2302,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="76" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="65"/>
@@ -2321,7 +2318,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="76" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="65"/>
@@ -2337,7 +2334,7 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="76" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="65"/>
@@ -2354,7 +2351,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="76" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="65"/>
@@ -2371,7 +2368,7 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="76" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="65"/>
@@ -2390,7 +2387,7 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="76" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="65"/>
@@ -2403,7 +2400,7 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="65"/>
@@ -2420,11 +2417,11 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="76" t="s">
         <v>53</v>
       </c>
       <c r="B31" s="65"/>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="77" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="65"/>
@@ -2439,7 +2436,7 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="76" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="65"/>
@@ -2452,7 +2449,7 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="76" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="65"/>
@@ -2469,7 +2466,7 @@
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="76" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="65"/>
@@ -2486,7 +2483,7 @@
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="75" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="65"/>
@@ -2500,7 +2497,7 @@
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="71"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="65"/>
       <c r="C36" s="28" t="s">
         <v>64</v>
@@ -2513,7 +2510,7 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="71"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="65"/>
       <c r="C37" s="28" t="s">
         <v>65</v>
@@ -2529,7 +2526,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="71"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="65"/>
       <c r="C38" s="28" t="s">
         <v>66</v>
@@ -2555,35 +2552,35 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="67"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="67"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="69"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="69"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
@@ -3548,35 +3545,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3589,6 +3557,35 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3665,7 +3662,7 @@
       <c r="D2" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="69"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>

--- a/poModle.xlsx
+++ b/poModle.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE7DA7A-C224-4764-BDB5-BAEB52D259CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4716956D-CEBB-4446-B296-946063D92757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="3090" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="3" r:id="rId1"/>
     <sheet name="參數表(1)" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
-  <si>
-    <t>Buenaventura, 哥倫比亞</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Gabriel</t>
   </si>
@@ -99,9 +109,6 @@
     <t>Attn :</t>
   </si>
   <si>
-    <t>Sunny</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -129,38 +136,10 @@
     <t>備註</t>
   </si>
   <si>
-    <t>不用噴字</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>噴字BA</t>
-  </si>
-  <si>
-    <t>不用噴字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不用噴字 </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>1. 襯紙:</t>
-  </si>
-  <si>
-    <t>■需要□不需要; □扣重■不扣重</t>
-  </si>
-  <si>
-    <t>2. 貼膜</t>
-  </si>
-  <si>
-    <t>■國產                          □進口   □POLI-FILM □NOVACEL</t>
-  </si>
-  <si>
-    <t>□藍色■黑白;</t>
-  </si>
-  <si>
-    <t>□100 Micro Laser PE, □80 Micro PE, ■70 Micro PE□50 Micro PE ; □扣重■不扣重</t>
   </si>
   <si>
     <r>
@@ -179,9 +158,6 @@
       </rPr>
       <t>包裝</t>
     </r>
-  </si>
-  <si>
-    <t>□中性包裝 ■標準外銷包裝</t>
   </si>
   <si>
     <r>
@@ -210,9 +186,6 @@
     </r>
   </si>
   <si>
-    <t>卷: Max. 3.3MT 版: Max. 2.5MT □淨重■毛重</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -237,9 +210,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>■需要□不需要 (GRADE/ FINISH/ THEORETICAL THICKNESS/ WIDTH/ LENGTH/ COIL NO.)</t>
   </si>
   <si>
     <r>
@@ -268,13 +238,7 @@
     </r>
   </si>
   <si>
-    <t>□300mm ■508mm □610mm</t>
-  </si>
-  <si>
     <t>7. 棧板:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">■需要 □不需要 </t>
   </si>
   <si>
     <t>原鋼捲:</t>
@@ -306,12 +270,6 @@
     </r>
   </si>
   <si>
-    <t>如下</t>
-  </si>
-  <si>
-    <t>430 2BA (LISCO)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -338,34 +296,13 @@
     </r>
   </si>
   <si>
-    <t>□上下■左右</t>
-  </si>
-  <si>
-    <t>0.60 x 1220 x C</t>
-  </si>
-  <si>
     <t>10. 重量公差:</t>
-  </si>
-  <si>
-    <t>23-25MT</t>
   </si>
   <si>
     <t>11. 厚度公差:</t>
   </si>
   <si>
-    <t xml:space="preserve">+0/-5% </t>
-  </si>
-  <si>
-    <t>430 2BA (HW)</t>
-  </si>
-  <si>
     <t xml:space="preserve">12. 貿易條件: </t>
-  </si>
-  <si>
-    <t>FOB Foshan Port</t>
-  </si>
-  <si>
-    <t>0.45 x 1220 x C</t>
   </si>
   <si>
     <t>13. 卸貨港:</t>
@@ -374,16 +311,7 @@
     <t xml:space="preserve">14. 麥頭格式: </t>
   </si>
   <si>
-    <t>PROMETAL/ C/No. / Coil/ Size/ N.W./ G.W.</t>
-  </si>
-  <si>
-    <t>430 2BA (上克)</t>
-  </si>
-  <si>
     <t>15. 特殊要求:</t>
-  </si>
-  <si>
-    <t>0.30 x 1000 x C</t>
   </si>
   <si>
     <r>
@@ -639,6 +567,25 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>貼膜</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS220404405</t>
+  </si>
 </sst>
 </file>
 
@@ -652,7 +599,7 @@
     <numFmt numFmtId="179" formatCode="[$US$]#,##0.00"/>
     <numFmt numFmtId="180" formatCode="0.0&quot;MT&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -818,6 +765,19 @@
       <color rgb="FF000000"/>
       <name val="BiauKai"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1231,7 +1191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1422,10 +1382,55 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1439,45 +1444,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1516,45 +1482,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1562100" cy="485775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image4.png" title="圖片">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,8 +1788,8 @@
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1880,37 +1807,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5">
+      <c r="A2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1919,7 +1846,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1948,72 +1875,64 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A7" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
-      <c r="H7" s="69" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="H7" s="84"/>
+      <c r="I7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>10</v>
       </c>
-      <c r="I7" s="65"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
-      <c r="A8" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
-      <c r="H8" s="64" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="H8" s="80"/>
+      <c r="I8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1">
+      <c r="A9" s="80" t="s">
+        <v>12</v>
       </c>
-      <c r="I8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
+      <c r="H9" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="18">
       <c r="A10" s="13"/>
@@ -2029,170 +1948,90 @@
     </row>
     <row r="11" spans="1:10" ht="37.5" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="H11" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="56" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.5" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A16" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A12" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B12" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="72" t="e">
-        <f>#REF! &amp; " " &amp; "(4捲)"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A13" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="72" t="e">
-        <f>#REF! &amp; " " &amp; "(2板)"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38.25" customHeight="1">
-      <c r="A14" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B14" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="72" t="e">
-        <f>#REF! &amp; " " &amp; "(2捲)"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A15" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B15" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="72" t="e">
-        <f>#REF! &amp; " " &amp; "(1捲)"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="57" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A16" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="71"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
@@ -2212,13 +2051,11 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>25</v>
+      <c r="A18" s="73" t="s">
+        <v>19</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="29" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -2228,13 +2065,11 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A19" s="75" t="s">
-        <v>27</v>
+      <c r="A19" s="73" t="s">
+        <v>90</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="29" t="s">
-        <v>28</v>
-      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -2245,9 +2080,7 @@
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
       <c r="A20" s="29"/>
-      <c r="C20" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -2258,9 +2091,7 @@
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="C21" s="29" t="s">
-        <v>30</v>
-      </c>
+      <c r="C21" s="64"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -2270,13 +2101,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="76" t="s">
-        <v>31</v>
+      <c r="A22" s="66" t="s">
+        <v>20</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -2286,13 +2115,11 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="76" t="s">
-        <v>33</v>
+      <c r="A23" s="66" t="s">
+        <v>21</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
@@ -2302,13 +2129,11 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="76" t="s">
-        <v>35</v>
+      <c r="A24" s="66" t="s">
+        <v>22</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="30" t="s">
-        <v>36</v>
-      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -2318,13 +2143,11 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A25" s="76" t="s">
-        <v>37</v>
+      <c r="A25" s="66" t="s">
+        <v>23</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -2334,206 +2157,169 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A26" s="76" t="s">
-        <v>39</v>
+      <c r="A26" s="66" t="s">
+        <v>24</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="H26" s="60" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A27" s="76" t="s">
-        <v>42</v>
+      <c r="A27" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="29" t="s">
-        <v>43</v>
-      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="H27" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="H27" s="29"/>
       <c r="I27" s="31"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A28" s="76" t="s">
-        <v>45</v>
+      <c r="A28" s="66" t="s">
+        <v>27</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="H28" s="29" t="s">
-        <v>47</v>
+      <c r="H28" s="29"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A29" s="66" t="s">
+        <v>28</v>
       </c>
-      <c r="I28" s="31">
-        <v>16</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A29" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A30" s="76" t="s">
-        <v>50</v>
+      <c r="A30" s="66" t="s">
+        <v>29</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
-      <c r="H30" s="29" t="s">
-        <v>52</v>
-      </c>
+      <c r="H30" s="29"/>
       <c r="I30" s="31"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A31" s="76" t="s">
-        <v>53</v>
+      <c r="A31" s="66" t="s">
+        <v>30</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="65"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
-      <c r="H31" s="29" t="s">
-        <v>55</v>
+      <c r="H31" s="29"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A32" s="66" t="s">
+        <v>31</v>
       </c>
-      <c r="I31" s="31">
-        <v>3.5</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="29" t="s">
-        <v>0</v>
-      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A33" s="76" t="s">
-        <v>57</v>
+      <c r="A33" s="66" t="s">
+        <v>32</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="H33" s="29" t="s">
-        <v>59</v>
-      </c>
+      <c r="H33" s="29"/>
       <c r="I33" s="31"/>
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A34" s="76" t="s">
-        <v>60</v>
+      <c r="A34" s="66" t="s">
+        <v>33</v>
       </c>
-      <c r="B34" s="65"/>
+      <c r="B34" s="67"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-      <c r="H34" s="29" t="s">
-        <v>61</v>
+      <c r="H34" s="29"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="33"/>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A35" s="73" t="s">
+        <v>34</v>
       </c>
-      <c r="I34" s="31">
-        <v>5</v>
+      <c r="B35" s="67"/>
+      <c r="C35" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="J34" s="33"/>
-    </row>
-    <row r="35" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A35" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
       <c r="H35" s="29"/>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="28" t="s">
-        <v>64</v>
+      <c r="A36" s="73"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="75" t="s">
+        <v>36</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
       <c r="H36" s="60"/>
       <c r="I36" s="55"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="28" t="s">
-        <v>65</v>
+      <c r="A37" s="73"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="75" t="s">
+        <v>37</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="31">
-        <f>SUM(I28:I36)</f>
-        <v>24.5</v>
+      <c r="I37" s="31"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="73"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="75" t="s">
+        <v>38</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="28"/>
       <c r="H38" s="29"/>
       <c r="J38" s="1"/>
@@ -2543,7 +2329,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2552,35 +2338,35 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A40" s="78" t="s">
-        <v>68</v>
+      <c r="A40" s="68" t="s">
+        <v>40</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="82" t="s">
-        <v>69</v>
+      <c r="B40" s="69"/>
+      <c r="C40" s="74" t="s">
+        <v>41</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="61" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
-      <c r="F40" s="82" t="s">
-        <v>71</v>
+      <c r="F40" s="74" t="s">
+        <v>43</v>
       </c>
-      <c r="G40" s="71"/>
+      <c r="G40" s="69"/>
       <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A41" s="79"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="80"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
-      <c r="F41" s="81" t="s">
-        <v>1</v>
+      <c r="F41" s="72" t="s">
+        <v>0</v>
       </c>
-      <c r="G41" s="80"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
@@ -3544,7 +3330,36 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="45">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3557,41 +3372,15 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.39573804891464898" bottom="0.33156431125281399" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3618,18 +3407,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>3</v>
+      <c r="A1" s="85" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="85" t="s">
-        <v>72</v>
+      <c r="B1" s="87" t="s">
+        <v>44</v>
       </c>
-      <c r="C1" s="87" t="s">
-        <v>73</v>
+      <c r="C1" s="89" t="s">
+        <v>45</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89" t="s">
-        <v>74</v>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="s">
+        <v>46</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -3654,15 +3443,15 @@
       <c r="Z1" s="37"/>
     </row>
     <row r="2" spans="1:26" ht="16.5">
-      <c r="A2" s="84"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="38" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -3690,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C3" s="42">
         <v>35</v>
@@ -3726,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C4" s="47">
         <v>120</v>
@@ -3762,7 +3551,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C5" s="47">
         <v>120</v>
@@ -3798,7 +3587,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C6" s="47">
         <v>120</v>
@@ -3834,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C7" s="47">
         <v>120</v>
@@ -3870,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C8" s="47">
         <v>120</v>
@@ -3906,7 +3695,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C9" s="47">
         <v>120</v>
@@ -3942,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C10" s="47">
         <v>120</v>
@@ -3978,7 +3767,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C11" s="47">
         <v>35</v>
@@ -4014,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C12" s="47">
         <v>35</v>
@@ -4050,7 +3839,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C13" s="47">
         <v>35</v>
@@ -4086,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C14" s="47">
         <v>35</v>
@@ -4122,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C15" s="47">
         <v>35</v>
@@ -4158,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C16" s="47">
         <v>35</v>
@@ -4194,7 +3983,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C17" s="47">
         <v>70</v>
@@ -4230,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C18" s="47">
         <v>70</v>
@@ -4266,7 +4055,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C19" s="47">
         <v>70</v>
@@ -4302,7 +4091,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C20" s="47">
         <v>70</v>
@@ -4338,7 +4127,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C21" s="47">
         <v>70</v>
@@ -4374,7 +4163,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C22" s="47">
         <v>70</v>
@@ -4410,7 +4199,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C23" s="47">
         <v>70</v>
@@ -4446,7 +4235,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C24" s="47">
         <v>120</v>
@@ -4482,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C25" s="47">
         <v>120</v>
@@ -4518,7 +4307,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C26" s="47">
         <v>120</v>
@@ -4554,7 +4343,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C27" s="47">
         <v>120</v>
@@ -4590,7 +4379,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C28" s="47">
         <v>120</v>
@@ -4626,7 +4415,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C29" s="47">
         <v>120</v>
@@ -4662,7 +4451,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C30" s="47">
         <v>280</v>
@@ -4698,7 +4487,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C31" s="52">
         <v>280</v>
@@ -4734,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C32" s="54">
         <v>50</v>
@@ -4768,7 +4557,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C33" s="54">
         <v>80</v>
@@ -4804,7 +4593,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C34" s="54">
         <v>110</v>
@@ -4838,7 +4627,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C35" s="54">
         <v>65</v>
@@ -4872,7 +4661,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="48"/>
@@ -4904,7 +4693,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C37" s="52">
         <v>100</v>
@@ -4940,14 +4729,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="48">
         <v>800</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -4976,7 +4765,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="48">
